--- a/Sorted_Pairs_Präsi.xlsx
+++ b/Sorted_Pairs_Präsi.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentsrwthaachende-my.sharepoint.com/personal/s3h4zdkzrzsmdp5k_students_rwth-aachen_de/Documents/Uni/Financial Data Science/Projekt/FDS-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="8_{CFC692E9-8233-41BF-B2DC-D65949A2CCC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17C273BC-9661-4E7F-B389-3CF76A1FEABB}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="8_{CFC692E9-8233-41BF-B2DC-D65949A2CCC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23F4CDD2-0CC8-47B7-88E9-7A08106FED79}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="4824" yWindow="8232" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="37440" yWindow="1305" windowWidth="17250" windowHeight="8865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
   <si>
     <t>AWK</t>
   </si>
@@ -80,24 +93,6 @@
   </si>
   <si>
     <t>AEP</t>
-  </si>
-  <si>
-    <t>ETR</t>
-  </si>
-  <si>
-    <t>DHI</t>
-  </si>
-  <si>
-    <t>LEN</t>
-  </si>
-  <si>
-    <t>ARE</t>
-  </si>
-  <si>
-    <t>PLD</t>
-  </si>
-  <si>
-    <t>FITB</t>
   </si>
   <si>
     <t>PFG</t>
@@ -657,22 +652,22 @@
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
@@ -737,483 +732,403 @@
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D6" s="10">
-        <v>0.98483315936355398</v>
+        <v>0.9673594718837637</v>
       </c>
       <c r="E6" s="7">
-        <v>1.7393292818574432E-2</v>
+        <v>8.8437699623817104E-4</v>
       </c>
       <c r="F6" s="7">
-        <v>0.91542829306250817</v>
+        <v>0.30832315414754902</v>
       </c>
       <c r="G6" s="7">
-        <v>1.5347259844459081E-3</v>
+        <v>2.9294196426002237E-4</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D7" s="10">
-        <v>0.9673594718837637</v>
+        <v>0.98483315936355398</v>
       </c>
       <c r="E7" s="7">
-        <v>8.8437699623817104E-4</v>
+        <v>1.7393292818574432E-2</v>
       </c>
       <c r="F7" s="7">
-        <v>0.30832315414754902</v>
+        <v>0.91542829306250817</v>
       </c>
       <c r="G7" s="7">
-        <v>2.9294196426002237E-4</v>
+        <v>1.5347259844459081E-3</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D8" s="10">
-        <v>0.97830167345278085</v>
+        <v>0.96850206207182177</v>
       </c>
       <c r="E8" s="7">
-        <v>1.5935264224574631E-2</v>
+        <v>1.3915696687478911E-2</v>
       </c>
       <c r="F8" s="7">
-        <v>0.82414984628455401</v>
+        <v>0.78266634171944971</v>
       </c>
       <c r="G8" s="7">
-        <v>1.5336254177062971E-2</v>
+        <v>4.2550413142392581E-3</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D9" s="10">
-        <v>0.96850206207182177</v>
+        <v>0.96459131527529474</v>
       </c>
       <c r="E9" s="7">
-        <v>1.3915696687478911E-2</v>
+        <v>1.3567439644299781E-2</v>
       </c>
       <c r="F9" s="7">
-        <v>0.78266634171944971</v>
+        <v>0.1022365612507203</v>
       </c>
       <c r="G9" s="7">
-        <v>4.2550413142392581E-3</v>
+        <v>1.91245311423898E-3</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D10" s="10">
-        <v>0.97932776465201876</v>
+        <v>0.97830167345278085</v>
       </c>
       <c r="E10" s="7">
-        <v>2.7406236571223121E-2</v>
+        <v>1.5935264224574631E-2</v>
       </c>
       <c r="F10" s="7">
-        <v>0.95427691398255121</v>
+        <v>0.82414984628455401</v>
       </c>
       <c r="G10" s="7">
-        <v>1.441537743722146E-2</v>
+        <v>1.5336254177062971E-2</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11" s="10">
-        <v>0.96459131527529474</v>
+        <v>0.97932776465201876</v>
       </c>
       <c r="E11" s="7">
-        <v>1.3567439644299781E-2</v>
+        <v>2.7406236571223121E-2</v>
       </c>
       <c r="F11" s="7">
-        <v>0.1022365612507203</v>
+        <v>0.95427691398255121</v>
       </c>
       <c r="G11" s="7">
-        <v>1.91245311423898E-3</v>
+        <v>1.441537743722146E-2</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D12" s="11">
-        <v>0.98527963333267354</v>
+        <v>0.9690950745827942</v>
       </c>
       <c r="E12" s="8">
-        <v>3.8631770036155352E-2</v>
+        <v>2.8273687948501811E-2</v>
       </c>
       <c r="F12" s="8">
-        <v>8.3915687730095837E-3</v>
+        <v>0.88722401163852938</v>
       </c>
       <c r="G12" s="8">
-        <v>7.257904097321792E-2</v>
+        <v>5.2604121103384102E-3</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D13" s="2">
-        <v>0.98177176061743399</v>
+        <v>0.93627639699799015</v>
       </c>
       <c r="E13" s="2">
-        <v>3.9884076665484103E-2</v>
+        <v>4.7339630882292224E-3</v>
       </c>
       <c r="F13">
-        <v>9.8594102764434088E-3</v>
+        <v>6.7987716690440419E-3</v>
       </c>
       <c r="G13">
-        <v>0.88940277055010775</v>
+        <v>9.6717007337794039E-4</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D14" s="2">
-        <v>0.9690950745827942</v>
+        <v>0.96504550868714079</v>
       </c>
       <c r="E14" s="2">
-        <v>2.8273687948501811E-2</v>
+        <v>3.431230265254772E-2</v>
       </c>
       <c r="F14">
-        <v>0.88722401163852938</v>
+        <v>0.96003998954217185</v>
       </c>
       <c r="G14">
-        <v>5.2604121103384102E-3</v>
+        <v>1.5218725240036521E-2</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="D15" s="2">
-        <v>0.94374476091498904</v>
+        <v>0.92631957389123598</v>
       </c>
       <c r="E15" s="2">
-        <v>7.1476717533445529E-3</v>
+        <v>1.351915377472478E-2</v>
       </c>
       <c r="F15">
-        <v>8.7259486025456964E-3</v>
+        <v>0.83322513679846877</v>
       </c>
       <c r="G15">
-        <v>5.9317004625782731E-2</v>
+        <v>5.6053678461808086E-3</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D16" s="2">
-        <v>0.96504550868714079</v>
+        <v>0.92542665785313882</v>
       </c>
       <c r="E16" s="2">
-        <v>3.431230265254772E-2</v>
+        <v>8.8329781463301329E-4</v>
       </c>
       <c r="F16">
-        <v>0.96003998954217185</v>
+        <v>1.1384582000233041E-3</v>
       </c>
       <c r="G16">
-        <v>1.5218725240036521E-2</v>
+        <v>2.6667970199892869E-2</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D17" s="2">
-        <v>0.93627639699799015</v>
+        <v>0.93694636241230422</v>
       </c>
       <c r="E17" s="2">
-        <v>4.7339630882292224E-3</v>
+        <v>3.1006215284110749E-2</v>
       </c>
       <c r="F17">
-        <v>6.7987716690440419E-3</v>
+        <v>1.3419682560711511E-2</v>
       </c>
       <c r="G17">
-        <v>9.6717007337794039E-4</v>
+        <v>1.109661819858037E-2</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D18" s="2">
-        <v>0.96327929894597364</v>
+        <v>0.9208637537357095</v>
       </c>
       <c r="E18" s="2">
-        <v>3.4124999660687792E-2</v>
+        <v>2.330949503793053E-2</v>
       </c>
       <c r="F18">
-        <v>5.3547987163321499E-3</v>
+        <v>3.8048890194027893E-2</v>
       </c>
       <c r="G18">
-        <v>0.2951668988657723</v>
+        <v>2.554345928527448E-3</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D19" s="2">
-        <v>0.92542665785313882</v>
+        <v>0.94660366342712987</v>
       </c>
       <c r="E19" s="2">
-        <v>8.8329781463301329E-4</v>
+        <v>3.8055061280437112E-2</v>
       </c>
       <c r="F19">
-        <v>1.1384582000233041E-3</v>
+        <v>5.9126453889583402E-2</v>
       </c>
       <c r="G19">
-        <v>2.6667970199892869E-2</v>
+        <v>2.734477515145978E-2</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D20" s="2">
-        <v>0.95290123702596885</v>
+        <v>0.9294788004409813</v>
       </c>
       <c r="E20" s="2">
-        <v>3.0747843307944469E-2</v>
+        <v>4.6955918700960858E-2</v>
       </c>
       <c r="F20">
-        <v>6.464458057471264E-3</v>
+        <v>3.919463450642241E-2</v>
       </c>
       <c r="G20">
-        <v>9.5837672383362715E-2</v>
+        <v>8.4368389915488885E-3</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D21" s="2">
-        <v>0.92631957389123598</v>
+        <v>0.90044523027082246</v>
       </c>
       <c r="E21" s="2">
-        <v>1.351915377472478E-2</v>
+        <v>1.5478140400228281E-2</v>
       </c>
       <c r="F21">
-        <v>0.83322513679846877</v>
+        <v>2.6566372999624649E-3</v>
       </c>
       <c r="G21">
-        <v>5.6053678461808086E-3</v>
+        <v>1.281096959316444E-2</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D22" s="2">
-        <v>0.94660366342712987</v>
+        <v>0.91340986149432624</v>
       </c>
       <c r="E22" s="2">
-        <v>3.8055061280437112E-2</v>
+        <v>3.3303214883951493E-2</v>
       </c>
       <c r="F22">
-        <v>5.9126453889583402E-2</v>
+        <v>4.9584088100079388E-2</v>
       </c>
       <c r="G22">
-        <v>2.734477515145978E-2</v>
+        <v>1.6207346553776331E-2</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D23" s="2">
-        <v>0.93694636241230422</v>
+        <v>0.93794220527456496</v>
       </c>
       <c r="E23" s="2">
-        <v>3.1006215284110749E-2</v>
+        <v>3.4031657013455362E-2</v>
       </c>
       <c r="F23">
-        <v>1.3419682560711511E-2</v>
+        <v>3.5166305310415029E-2</v>
       </c>
       <c r="G23">
-        <v>1.109661819858037E-2</v>
+        <v>4.5113400643584919E-2</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D24" s="2">
-        <v>0.93794220527456496</v>
+        <v>0.9188970369417172</v>
       </c>
       <c r="E24" s="2">
-        <v>3.4031657013455362E-2</v>
+        <v>4.5905724990653277E-2</v>
       </c>
       <c r="F24">
-        <v>3.5166305310415029E-2</v>
+        <v>1.3196399589165511E-2</v>
       </c>
       <c r="G24">
-        <v>4.5113400643584919E-2</v>
+        <v>1.677742331067596E-2</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="2">
-        <v>0.9208637537357095</v>
-      </c>
-      <c r="E25" s="2">
-        <v>2.330949503793053E-2</v>
-      </c>
-      <c r="F25">
-        <v>3.8048890194027893E-2</v>
-      </c>
-      <c r="G25">
-        <v>2.554345928527448E-3</v>
-      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D26" s="2">
-        <v>0.90044523027082246</v>
-      </c>
-      <c r="E26" s="2">
-        <v>1.5478140400228281E-2</v>
-      </c>
-      <c r="F26">
-        <v>2.6566372999624649E-3</v>
-      </c>
-      <c r="G26">
-        <v>1.281096959316444E-2</v>
-      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" s="2">
-        <v>0.9294788004409813</v>
-      </c>
-      <c r="E27" s="2">
-        <v>4.6955918700960858E-2</v>
-      </c>
-      <c r="F27">
-        <v>3.919463450642241E-2</v>
-      </c>
-      <c r="G27">
-        <v>8.4368389915488885E-3</v>
-      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" s="2">
-        <v>0.91340986149432624</v>
-      </c>
-      <c r="E28" s="2">
-        <v>3.3303214883951493E-2</v>
-      </c>
-      <c r="F28">
-        <v>4.9584088100079388E-2</v>
-      </c>
-      <c r="G28">
-        <v>1.6207346553776331E-2</v>
-      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" t="s">
-        <v>39</v>
-      </c>
-      <c r="D29" s="2">
-        <v>0.9188970369417172</v>
-      </c>
-      <c r="E29" s="2">
-        <v>4.5905724990653277E-2</v>
-      </c>
-      <c r="F29">
-        <v>1.3196399589165511E-2</v>
-      </c>
-      <c r="G29">
-        <v>1.677742331067596E-2</v>
-      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="D30" s="2"/>
